--- a/biology/Zoologie/Brassicogethes/Brassicogethes.xlsx
+++ b/biology/Zoologie/Brassicogethes/Brassicogethes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brassicogethes est un  genre de coléoptères de la famille des Nitidulidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (25 mai 2024)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (25 mai 2024) :
 Brassicogethes aeneus (Fabricius, 1775)
 Brassicogethes arankae (Audisio &amp; De Biase, 2005)
 Brassicogethes bithynicus (Audisio, 1988)
@@ -532,7 +546,7 @@
 Brassicogethes squamosus (Jelinek &amp; Marek, 1966)
 Brassicogethes thalassophilus (Audisio &amp; De Biase, 2005)
 Brassicogethes viridescens (Fabricius, 1787)
-Auxquelles NCBI  (24 mai 2024)[2] ajoute :
+Auxquelles NCBI  (24 mai 2024) ajoute :
 Brassicogethes affinis (Jelínek, 1982)
 Brassicogethes anthracinus (Brisout de Barneville, 1863)
 Brassicogethes coracinus (Sturm, 1845)
@@ -564,9 +578,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Brassicogethes Audisio (d) &amp; Cline (d), 2009[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Brassicogethes Audisio (d) &amp; Cline (d), 2009.
 </t>
         </is>
       </c>
